--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi3</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.43919874777042</v>
+        <v>1.535771</v>
       </c>
       <c r="H2">
-        <v>1.43919874777042</v>
+        <v>4.607313</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="N2">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="O2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="P2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="Q2">
-        <v>0.1854221803469692</v>
+        <v>0.2224630843576667</v>
       </c>
       <c r="R2">
-        <v>0.1854221803469692</v>
+        <v>2.002167759219</v>
       </c>
       <c r="S2">
-        <v>0.007147272683875431</v>
+        <v>0.00672939638314816</v>
       </c>
       <c r="T2">
-        <v>0.007147272683875431</v>
+        <v>0.006729396383148159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.43919874777042</v>
+        <v>1.535771</v>
       </c>
       <c r="H3">
-        <v>1.43919874777042</v>
+        <v>4.607313</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8955152254457543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="N3">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="O3">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="P3">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="Q3">
-        <v>19.81982979262679</v>
+        <v>22.26021586601901</v>
       </c>
       <c r="R3">
-        <v>19.81982979262679</v>
+        <v>200.341942794171</v>
       </c>
       <c r="S3">
-        <v>0.7639740176219829</v>
+        <v>0.6733603310832776</v>
       </c>
       <c r="T3">
-        <v>0.7639740176219829</v>
+        <v>0.6733603310832775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.535771</v>
+      </c>
+      <c r="H4">
+        <v>4.607313</v>
+      </c>
+      <c r="I4">
+        <v>0.8955152254457543</v>
+      </c>
+      <c r="J4">
+        <v>0.8955152254457543</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.091182</v>
+      </c>
+      <c r="N4">
+        <v>0.273546</v>
+      </c>
+      <c r="O4">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="P4">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="Q4">
+        <v>0.140034671322</v>
+      </c>
+      <c r="R4">
+        <v>1.260312041898</v>
+      </c>
+      <c r="S4">
+        <v>0.004235978357625124</v>
+      </c>
+      <c r="T4">
+        <v>0.004235978357625124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.535771</v>
+      </c>
+      <c r="H5">
+        <v>4.607313</v>
+      </c>
+      <c r="I5">
+        <v>0.8955152254457543</v>
+      </c>
+      <c r="J5">
+        <v>0.8955152254457543</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="N5">
+        <v>13.637947</v>
+      </c>
+      <c r="O5">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="P5">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="Q5">
+        <v>6.981587834045668</v>
+      </c>
+      <c r="R5">
+        <v>62.83429050641101</v>
+      </c>
+      <c r="S5">
+        <v>0.2111895196217034</v>
+      </c>
+      <c r="T5">
+        <v>0.2111895196217034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.43919874777042</v>
-      </c>
-      <c r="H4">
-        <v>1.43919874777042</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4.12577895134622</v>
-      </c>
-      <c r="N4">
-        <v>4.12577895134622</v>
-      </c>
-      <c r="O4">
-        <v>0.2288787096941417</v>
-      </c>
-      <c r="P4">
-        <v>0.2288787096941417</v>
-      </c>
-      <c r="Q4">
-        <v>5.937815900355036</v>
-      </c>
-      <c r="R4">
-        <v>5.937815900355036</v>
-      </c>
-      <c r="S4">
-        <v>0.2288787096941417</v>
-      </c>
-      <c r="T4">
-        <v>0.2288787096941417</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.179187</v>
+      </c>
+      <c r="H6">
+        <v>0.537561</v>
+      </c>
+      <c r="I6">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J6">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1448543333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.434563</v>
+      </c>
+      <c r="O6">
+        <v>0.007514552731137001</v>
+      </c>
+      <c r="P6">
+        <v>0.007514552731137</v>
+      </c>
+      <c r="Q6">
+        <v>0.025956013427</v>
+      </c>
+      <c r="R6">
+        <v>0.233604120843</v>
+      </c>
+      <c r="S6">
+        <v>0.0007851563479888403</v>
+      </c>
+      <c r="T6">
+        <v>0.0007851563479888402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.179187</v>
+      </c>
+      <c r="H7">
+        <v>0.537561</v>
+      </c>
+      <c r="I7">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J7">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.494489</v>
+      </c>
+      <c r="N7">
+        <v>43.483467</v>
+      </c>
+      <c r="O7">
+        <v>0.7519250504625467</v>
+      </c>
+      <c r="P7">
+        <v>0.7519250504625465</v>
+      </c>
+      <c r="Q7">
+        <v>2.597224000443</v>
+      </c>
+      <c r="R7">
+        <v>23.375016003987</v>
+      </c>
+      <c r="S7">
+        <v>0.07856471937926895</v>
+      </c>
+      <c r="T7">
+        <v>0.07856471937926894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.179187</v>
+      </c>
+      <c r="H8">
+        <v>0.537561</v>
+      </c>
+      <c r="I8">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J8">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.091182</v>
+      </c>
+      <c r="N8">
+        <v>0.273546</v>
+      </c>
+      <c r="O8">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="P8">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="Q8">
+        <v>0.016338629034</v>
+      </c>
+      <c r="R8">
+        <v>0.147047661306</v>
+      </c>
+      <c r="S8">
+        <v>0.0004942353084983197</v>
+      </c>
+      <c r="T8">
+        <v>0.0004942353084983197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.179187</v>
+      </c>
+      <c r="H9">
+        <v>0.537561</v>
+      </c>
+      <c r="I9">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="J9">
+        <v>0.1044847745542456</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="N9">
+        <v>13.637947</v>
+      </c>
+      <c r="O9">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="P9">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="Q9">
+        <v>0.814580936363</v>
+      </c>
+      <c r="R9">
+        <v>7.331228427267</v>
+      </c>
+      <c r="S9">
+        <v>0.02464066351848952</v>
+      </c>
+      <c r="T9">
+        <v>0.02464066351848952</v>
       </c>
     </row>
   </sheetData>
